--- a/Agenda_quotidien.xlsx
+++ b/Agenda_quotidien.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Kennouille.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471B4748-3C68-4AA1-B48B-71FB24AEE3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB590E9-30A9-41EC-935D-0CAE3C935363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43815" yWindow="1050" windowWidth="15390" windowHeight="9450" xr2:uid="{E22BD100-06F1-437E-A138-095D8A04BD3A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{E22BD100-06F1-437E-A138-095D8A04BD3A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,19 +473,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -498,20 +498,20 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
+        <v>8118981720</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
         <v>45567</v>
       </c>
-      <c r="B2">
+      <c r="D2">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>45</v>
-      </c>
-      <c r="D2">
-        <v>8118981720</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -524,20 +524,20 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
+        <v>8118594482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
         <v>45576</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>30</v>
-      </c>
-      <c r="D3">
-        <v>8118594482</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -550,20 +550,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
+        <v>8118597903</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
         <v>45570</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>15</v>
-      </c>
-      <c r="D4">
-        <v>8118597903</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
